--- a/Experiments/FogBench/results/PSPHINX.xlsx
+++ b/Experiments/FogBench/results/PSPHINX.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmcch\Documents\csc4006Gitlab\csc4006-EdgeBenchmarking\Experiments\FogBench\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A25A38-123B-486A-A10E-90CBEAEE6C31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A8128-2B28-49BE-8D27-099C30C8CF46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{72AC135F-25AD-4343-869A-C8747B96EB58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{72AC135F-25AD-4343-869A-C8747B96EB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud" sheetId="1" r:id="rId1"/>
     <sheet name="Edge" sheetId="2" r:id="rId2"/>
-    <sheet name="Cloud-Edge" sheetId="3" r:id="rId3"/>
+    <sheet name="Rasp" sheetId="4" r:id="rId3"/>
+    <sheet name="Cloud-Edge" sheetId="3" r:id="rId4"/>
+    <sheet name="Cloud-Edge Rasp" sheetId="5" r:id="rId5"/>
+    <sheet name="stress rasp" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="27">
   <si>
     <t>T1</t>
   </si>
@@ -100,12 +103,30 @@
   <si>
     <t>CL</t>
   </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 1</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 2</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 3</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 4</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 4 ram 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +134,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -130,15 +451,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -266,7 +784,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.6563640000000017</c:v>
+                  <c:v>2.6563639999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.4289407000000001</c:v>
@@ -768,7 +1286,7 @@
                   <c:v>15.163222588</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.518931518999999</c:v>
+                  <c:v>16.518931518999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,6 +1669,1084 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Communication Latency - Pocket Sphinx</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cloud-Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Cloud-Edge'!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6563639999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4289407000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4875255000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F064-4857-9B2E-07F8C7072B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cloud Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cloud!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.2946464999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2970096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2229983000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F064-4857-9B2E-07F8C7072B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Edge!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0979013999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2516023000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2392953000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F064-4857-9B2E-07F8C7072B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Raspberry Pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rasp!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4646236999999971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6696422999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6856226999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F064-4857-9B2E-07F8C7072B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424334528"/>
+        <c:axId val="424334200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424334528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424334200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Communication Latency (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Computation Latency - Pocket Sphinx</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cloud-Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cloud-Edge'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.270130019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.163222588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.518931518999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0454-4DD4-8910-B8D5C18D695D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cloud Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cloud!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.9350305309999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8267585579999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1344368410000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0454-4DD4-8910-B8D5C18D695D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Edge!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.524164606999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.873199405999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.696026471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0454-4DD4-8910-B8D5C18D695D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Raspberry Pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rasp!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.975103963999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.916226164000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.417129122999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0454-4DD4-8910-B8D5C18D695D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424334528"/>
+        <c:axId val="424334200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424334528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424334200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Latency (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1231,6 +2827,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2237,19 +3913,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2281,13 +4963,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2315,6 +4997,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9BCC1B-429E-40A4-BDE5-B14AE3C328D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5E8B2B-E3DE-4DC5-A690-27F5AEF4B629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2324,47 +5082,17 @@
     <sheetNames>
       <sheetName val="Cloud"/>
       <sheetName val="Edge"/>
+      <sheetName val="Rasp"/>
       <sheetName val="Cloud-Edge"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="2">
           <cell r="P2">
-            <v>3.6826726999999999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>3.5786889</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>3.7167808000000004</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="P2">
-            <v>2.6168320000000005</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>2.6587479999999992</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>2.7458407999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="P2">
-            <v>2.6563640000000017</v>
+            <v>2.6563639999999999</v>
           </cell>
         </row>
         <row r="3">
@@ -2680,10 +5408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28334C5E-9D7E-44AF-A3B4-5C96B9A7C11C}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,6 +5617,68 @@
       <c r="P4">
         <f t="shared" si="0"/>
         <v>3.2229983000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.6373512666666665</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>3.3605238433333331</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.83136434233333334</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.6342001999999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6.6320753100000003</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.5666427592333334</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.4935466666666666E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>193450.66666666666</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>3033.3333333333335</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>117802.1213886316</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1858.3893053009999</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>3.2715514666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2898,10 +5688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A899AFF-545E-4740-BF8E-DE1AEABEE5E6}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,17 +5899,79 @@
         <v>2.2392953000000002</v>
       </c>
     </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.1099829000000001</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>12.168197161333334</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.5715760673333332</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.0862834333333333</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>14.364463494666666</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.0486864855999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.7040133333333336E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>193789.33333333334</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>3640</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>174178.44408197232</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>3362.8320641362334</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>2.1962663333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82639E7D-B198-4E21-99D1-D7B02BFAB1D8}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75990E2-EF4A-4929-9A1A-6C5546E8F9A2}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,6 +6028,286 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.73947669999999999</v>
+      </c>
+      <c r="B2">
+        <v>17.510480264000002</v>
+      </c>
+      <c r="C2">
+        <v>3.0601753920000001</v>
+      </c>
+      <c r="D2">
+        <v>0.72514699999999999</v>
+      </c>
+      <c r="E2">
+        <v>18.975103963999999</v>
+      </c>
+      <c r="F2">
+        <v>3.8422816829999999</v>
+      </c>
+      <c r="G2">
+        <v>3.8911700000000002E-5</v>
+      </c>
+      <c r="H2">
+        <v>149280</v>
+      </c>
+      <c r="I2">
+        <v>3272</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>201872.48631363199</v>
+      </c>
+      <c r="L2">
+        <v>4512.1885631465002</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <f>E2-B2</f>
+        <v>1.4646236999999971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.81354170000000003</v>
+      </c>
+      <c r="B3">
+        <v>24.246583864000002</v>
+      </c>
+      <c r="C3">
+        <v>1.9128304869999999</v>
+      </c>
+      <c r="D3">
+        <v>0.85610059999999999</v>
+      </c>
+      <c r="E3">
+        <v>25.916226164000001</v>
+      </c>
+      <c r="F3">
+        <v>3.6512502758999998</v>
+      </c>
+      <c r="G3">
+        <v>5.3880700000000001E-5</v>
+      </c>
+      <c r="H3">
+        <v>216024</v>
+      </c>
+      <c r="I3">
+        <v>3280</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>265535.25160418899</v>
+      </c>
+      <c r="L3">
+        <v>3831.3254306795002</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="0">E3-B3</f>
+        <v>1.6696422999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.8485009</v>
+      </c>
+      <c r="B4">
+        <v>26.731506422999999</v>
+      </c>
+      <c r="C4">
+        <v>1.9844639040000001</v>
+      </c>
+      <c r="D4">
+        <v>0.83712180000000003</v>
+      </c>
+      <c r="E4">
+        <v>28.417129122999999</v>
+      </c>
+      <c r="F4">
+        <v>4.0254503788999996</v>
+      </c>
+      <c r="G4">
+        <v>5.94027E-5</v>
+      </c>
+      <c r="H4">
+        <v>216024</v>
+      </c>
+      <c r="I4">
+        <v>3288</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>254594.897895806</v>
+      </c>
+      <c r="L4">
+        <v>3927.7438480278001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.6856226999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>0.80050643333333327</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>22.829523517000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.3191565943333337</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.8061231333333333</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>24.436153083666667</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.839660779266667</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5.0731700000000001E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>193776</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>3280</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>240667.54527120898</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>4090.4192806179331</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>1.6066295666666655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82639E7D-B198-4E21-99D1-D7B02BFAB1D8}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1.0478117</v>
       </c>
       <c r="B2">
@@ -3211,8 +6343,8 @@
       <c r="L2">
         <v>3534.8675776612999</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
+      <c r="M2">
+        <v>1536192.45700657</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
@@ -3262,8 +6394,8 @@
       <c r="L3">
         <v>3620.6787985643</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
+      <c r="M3">
+        <v>1246541.1255175499</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
@@ -3281,7 +6413,7 @@
         <v>1.5984697999999999</v>
       </c>
       <c r="B4">
-        <v>14.462257219</v>
+        <v>13.462257219</v>
       </c>
       <c r="C4">
         <v>1.1168023739999999</v>
@@ -3290,7 +6422,7 @@
         <v>1.4582044999999999</v>
       </c>
       <c r="E4">
-        <v>17.518931518999999</v>
+        <v>16.518931518999999</v>
       </c>
       <c r="F4">
         <v>2.1778457928999999</v>
@@ -3313,8 +6445,8 @@
       <c r="L4">
         <v>2529.1377169663001</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
+      <c r="M4">
+        <v>1610437.6881547901</v>
       </c>
       <c r="N4" t="s">
         <v>19</v>
@@ -3325,10 +6457,1575 @@
       <c r="P4">
         <f t="shared" si="0"/>
         <v>3.0566742999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.3959415000000002</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>11.742815075333333</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.4720606353333334</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.1786714666666667</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>14.317428041999998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.0287357125000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.6835566666666671E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>193789.33333333334</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>3706.6666666666665</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>6618053.333333333</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>139257.66583409731</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>3228.2280310639667</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>1464390.4235596366</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>2.5746129666666664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F567D1-055A-45DC-A047-8111FFCE1869}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.84688470000000005</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15.624173611</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.982862694</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.81510490000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>17.286163211000002</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.4283740465000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.472E-5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>149280</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3336</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6618140</v>
+      </c>
+      <c r="K2" s="1">
+        <v>176269.56774635299</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4092.7247523599999</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1106443.14810027</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5.9814550899999999</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.6619896000000001</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.81158969999999997</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23.928855583000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0476118730000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.84099409999999997</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25.581439382999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.6034041347999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.3174699999999998E-5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>216024</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3344</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6618100</v>
+      </c>
+      <c r="K3" s="1">
+        <v>266173.90536129201</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3976.2466823488999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>969667.38005537703</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6.8251238890000003</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.6525837999999999</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.82114299999999996</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26.720010659</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.9853306209999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.81782469999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>28.358978359000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.0237192521000003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.9377199999999998E-5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>216024</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3352</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6618160</v>
+      </c>
+      <c r="K4" s="1">
+        <v>263077.19849039603</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4098.6778706977002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1060289.59346165</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6.2418418899999999</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.6389677</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>(A2+A3+A4)/3</f>
+        <v>0.82653913333333329</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" ref="B6:Q6" si="0">(B2+B3+B4)/3</f>
+        <v>22.091013284333332</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0052683960000004</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82464123333333328</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>23.742193651000004</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.685165811133333</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9090633333333341E-5</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>193776</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>3344</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>6618133.333333333</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>235173.55719934698</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>4055.8831018021997</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>1045466.7072057655</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.3494736230000006</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6511803666666667</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BC44D1-C082-484A-9084-F992DDA8A7DC}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.7842768</v>
+      </c>
+      <c r="B2" s="4">
+        <v>18.842259239000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.013638367</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.80271950000000003</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20.429255539</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.1345106730000003</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.18712E-5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>149280</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3336</v>
+      </c>
+      <c r="J2" s="4">
+        <v>6618000</v>
+      </c>
+      <c r="K2" s="4">
+        <v>190340.96125245499</v>
+      </c>
+      <c r="L2" s="4">
+        <v>4155.8726304766997</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1117923.42927696</v>
+      </c>
+      <c r="N2" s="4">
+        <v>5.9199045540000004</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.5869963</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1.5288371000000001</v>
+      </c>
+      <c r="B3" s="4">
+        <v>26.074660413</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.987266937</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.80132300000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>28.404820513000001</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.9265370973999998</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.7943099999999998E-5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>216024</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3344</v>
+      </c>
+      <c r="J3" s="4">
+        <v>6618160</v>
+      </c>
+      <c r="K3" s="4">
+        <v>141299.55375886601</v>
+      </c>
+      <c r="L3" s="4">
+        <v>4173.0987379620001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1189362.28973824</v>
+      </c>
+      <c r="N3" s="4">
+        <v>5.5644609359999997</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.3301601000000001</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.75129190000000001</v>
+      </c>
+      <c r="B4" s="4">
+        <v>29.011617699999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.998791489</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.71293759999999995</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30.4758472</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.3688083123999997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.4469599999999997E-5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>216024</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3424</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6618140</v>
+      </c>
+      <c r="K4" s="4">
+        <v>287536.70843516302</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4802.6643566000002</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1179138.9565957701</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5.6126887869999997</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1.4642295000000001</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.0214686000000002</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" ref="B6:O6" si="0">(B2+B3+B4)/3</f>
+        <v>24.642845784000002</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3332322643333332</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77232669999999992</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>26.436641084000001</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1432853609333335</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>5.47613E-5</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>193776</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>3368</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>6618100</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>206392.40781549466</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>4377.211908346233</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>1162141.5585369898</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6990180923333327</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7937953</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.76310080000000002</v>
+      </c>
+      <c r="B8" s="5">
+        <v>15.683658579999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.9575191649999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.84169989999999995</v>
+      </c>
+      <c r="E8" s="5">
+        <v>17.288459280000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.4414266870999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.4852199999999998E-5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>149280</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3336</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6618160</v>
+      </c>
+      <c r="K8" s="5">
+        <v>195622.91115407</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3963.4078606876001</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1190578.36201077</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5.5587773230000002</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1.6048007</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0.76822520000000005</v>
+      </c>
+      <c r="B9" s="5">
+        <v>23.827774323</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.9609076620000001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.73746120000000004</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25.333460723000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.5881824862</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5.295E-5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>216024</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3424</v>
+      </c>
+      <c r="J9" s="5">
+        <v>6618140</v>
+      </c>
+      <c r="K9" s="5">
+        <v>281198.794311876</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4642.9561311157004</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1196124.82442917</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5.5329844049999997</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1.5056864000000001</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0.78092039999999996</v>
+      </c>
+      <c r="B10" s="5">
+        <v>26.757039979999998</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.920384608</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.75821680000000002</v>
+      </c>
+      <c r="E10" s="5">
+        <v>28.296177180000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4.0292954321999996</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.9459400000000002E-5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>216024</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3352</v>
+      </c>
+      <c r="J10" s="5">
+        <v>6618140</v>
+      </c>
+      <c r="K10" s="5">
+        <v>276627.42579141201</v>
+      </c>
+      <c r="L10" s="5">
+        <v>4420.8991412482001</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1194531.3748860001</v>
+      </c>
+      <c r="N10" s="5">
+        <v>5.5403651500000004</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1.5391372000000001</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>(A8+A9+A10)/3</f>
+        <v>0.7707487999999999</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" ref="B12:O12" si="1">(B8+B9+B10)/3</f>
+        <v>22.089490960999999</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9462704783333333</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77912596666666667</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>23.639365727666668</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6863015351666668</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>4.90872E-5</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>193776</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>3370.6666666666665</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>6618146.666666667</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>251149.71041911934</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="1"/>
+        <v>4342.4210443504999</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="1"/>
+        <v>1193744.8537753134</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="1"/>
+        <v>5.544042292666667</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5498747666666668</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>0.81248790000000004</v>
+      </c>
+      <c r="B14" s="6">
+        <v>18.576870823</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.4167498350000001</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.80054919999999996</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20.189907923</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4.0762771445999997</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4.1281500000000001E-5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>149280</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3416</v>
+      </c>
+      <c r="J14" s="6">
+        <v>6618140</v>
+      </c>
+      <c r="K14" s="6">
+        <v>183731.966962215</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4267.0706559946002</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1177306.81898972</v>
+      </c>
+      <c r="N14" s="6">
+        <v>5.6214233140000003</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1.6130370999999999</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>0.82812350000000001</v>
+      </c>
+      <c r="B15" s="6">
+        <v>28.752762265000001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.4186752330000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.75850969999999995</v>
+      </c>
+      <c r="E15" s="6">
+        <v>30.339395464999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4.3298277292999998</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6.3894300000000003E-5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>216024</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3344</v>
+      </c>
+      <c r="J15" s="6">
+        <v>6618140</v>
+      </c>
+      <c r="K15" s="6">
+        <v>260859.642311804</v>
+      </c>
+      <c r="L15" s="6">
+        <v>4408.6450048034003</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1146855.55593395</v>
+      </c>
+      <c r="N15" s="6">
+        <v>5.7706831220000003</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1.5866332000000001</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>0.80557590000000001</v>
+      </c>
+      <c r="B16" s="6">
+        <v>32.166457025</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2.5465077260000002</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.79995959999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>33.771992525000002</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4.8438899989999999</v>
+      </c>
+      <c r="G16" s="6">
+        <v>7.1480299999999994E-5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>216024</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3424</v>
+      </c>
+      <c r="J16" s="6">
+        <v>6618140</v>
+      </c>
+      <c r="K16" s="6">
+        <v>268160.95168686099</v>
+      </c>
+      <c r="L16" s="6">
+        <v>4280.2161509156003</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1159338.70154773</v>
+      </c>
+      <c r="N16" s="6">
+        <v>5.7085474600000001</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1.6055355</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>(A14+A15+A16)/3</f>
+        <v>0.81539576666666669</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" ref="B18:O18" si="2">(B14+B15+B16)/3</f>
+        <v>26.498696704333337</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4606442646666671</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.78633949999999997</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="2"/>
+        <v>28.100431971000003</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>4.4166649576333326</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>5.888536666666667E-5</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="2"/>
+        <v>193776</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="2"/>
+        <v>3394.6666666666665</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="2"/>
+        <v>6618140</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="2"/>
+        <v>237584.18698696001</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>4318.6439372378663</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="2"/>
+        <v>1161167.0254904665</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="2"/>
+        <v>5.7002179653333336</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6017352666666669</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>0.9627831</v>
+      </c>
+      <c r="B20" s="7">
+        <v>19.749930469999999</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2.7485211939999998</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.97439109999999995</v>
+      </c>
+      <c r="E20" s="7">
+        <v>21.68710467</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4.3336787422</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4.3888199999999998E-5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>149280</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3336</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6618160</v>
+      </c>
+      <c r="K20" s="7">
+        <v>155050.49891299501</v>
+      </c>
+      <c r="L20" s="7">
+        <v>3423.6765914631001</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1147275.65735318</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5.7685874860000004</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1.9371742000000001</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>1.1664717</v>
+      </c>
+      <c r="B21" s="7">
+        <v>29.801795653999999</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3.0999682979999998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1.0474743</v>
+      </c>
+      <c r="E21" s="7">
+        <v>32.015741654000003</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4.4877998160999999</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6.6225500000000005E-5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>216024</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3344</v>
+      </c>
+      <c r="J21" s="7">
+        <v>6618140</v>
+      </c>
+      <c r="K21" s="7">
+        <v>185194.37719749199</v>
+      </c>
+      <c r="L21" s="7">
+        <v>3192.4410937814</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1083212.3501872099</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6.1097346229999996</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2.213946</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>0.98524040000000002</v>
+      </c>
+      <c r="B22" s="7">
+        <v>33.286564218000002</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3.0502584239999999</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.0104826</v>
+      </c>
+      <c r="E22" s="7">
+        <v>35.282287218</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5.0125649645000001</v>
+      </c>
+      <c r="G22" s="7">
+        <v>7.3969399999999997E-5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>216024</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3352</v>
+      </c>
+      <c r="J22" s="7">
+        <v>6618140</v>
+      </c>
+      <c r="K22" s="7">
+        <v>219260.19274077599</v>
+      </c>
+      <c r="L22" s="7">
+        <v>3317.2268379484999</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1172444.79751021</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5.6447348430000002</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1.9957229999999999</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f>(A20+A21+A22)/3</f>
+        <v>1.0381650666666666</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" ref="B24:O24" si="3">(B20+B21+B22)/3</f>
+        <v>27.612763447333332</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="3"/>
+        <v>2.9662493053333332</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0107826666666666</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="3"/>
+        <v>29.661711180666668</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="3"/>
+        <v>4.6113478409333339</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="3"/>
+        <v>6.1361033333333338E-5</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="3"/>
+        <v>193776</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="3"/>
+        <v>3344</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="3"/>
+        <v>6618146.666666667</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="3"/>
+        <v>186501.68961708769</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="3"/>
+        <v>3311.1148410643332</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="3"/>
+        <v>1134310.9350168665</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="3"/>
+        <v>5.8410189839999989</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0489477333333332</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>1.1092044999999999</v>
+      </c>
+      <c r="B26" s="8">
+        <v>28.137898993</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5.6598549370000004</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.0973244</v>
+      </c>
+      <c r="E26" s="8">
+        <v>30.344427892999999</v>
+      </c>
+      <c r="F26" s="8">
+        <v>6.1742300764999998</v>
+      </c>
+      <c r="G26" s="8">
+        <v>6.2527999999999995E-5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>149280</v>
+      </c>
+      <c r="I26" s="8">
+        <v>3336</v>
+      </c>
+      <c r="J26" s="8">
+        <v>6618200</v>
+      </c>
+      <c r="K26" s="8">
+        <v>134582.93759176001</v>
+      </c>
+      <c r="L26" s="8">
+        <v>3040.1219548201998</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1099099.8580915099</v>
+      </c>
+      <c r="N26" s="8">
+        <v>6.0214728910000002</v>
+      </c>
+      <c r="O26" s="8">
+        <v>2.2065288999999999</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>1.0431828000000001</v>
+      </c>
+      <c r="B27" s="8">
+        <v>39.903424524000002</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3.5399515359999998</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.1721841</v>
+      </c>
+      <c r="E27" s="8">
+        <v>42.118791424000001</v>
+      </c>
+      <c r="F27" s="8">
+        <v>6.0089862812000003</v>
+      </c>
+      <c r="G27" s="8">
+        <v>8.8673300000000004E-5</v>
+      </c>
+      <c r="H27" s="8">
+        <v>216024</v>
+      </c>
+      <c r="I27" s="8">
+        <v>3344</v>
+      </c>
+      <c r="J27" s="8">
+        <v>6618200</v>
+      </c>
+      <c r="K27" s="8">
+        <v>207081.635164996</v>
+      </c>
+      <c r="L27" s="8">
+        <v>2852.7941984539002</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1125813.0375244</v>
+      </c>
+      <c r="N27" s="8">
+        <v>5.8785959830000003</v>
+      </c>
+      <c r="O27" s="8">
+        <v>2.2153668999999998</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>1.0573030999999999</v>
+      </c>
+      <c r="B28" s="8">
+        <v>44.439732786</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3.3443927640000002</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1.0383543</v>
+      </c>
+      <c r="E28" s="8">
+        <v>46.535390186000001</v>
+      </c>
+      <c r="F28" s="8">
+        <v>6.6921009371000002</v>
+      </c>
+      <c r="G28" s="8">
+        <v>9.8753900000000003E-5</v>
+      </c>
+      <c r="H28" s="8">
+        <v>216024</v>
+      </c>
+      <c r="I28" s="8">
+        <v>3352</v>
+      </c>
+      <c r="J28" s="8">
+        <v>6618140</v>
+      </c>
+      <c r="K28" s="8">
+        <v>204316.056578288</v>
+      </c>
+      <c r="L28" s="8">
+        <v>3228.1852157784001</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1058158.6649710101</v>
+      </c>
+      <c r="N28" s="8">
+        <v>6.2543928610000004</v>
+      </c>
+      <c r="O28" s="8">
+        <v>2.0956573999999999</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f>(A26+A27+A28)/3</f>
+        <v>1.0698968</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" ref="B30:O30" si="4">(B26+B27+B28)/3</f>
+        <v>37.493685434333337</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="4"/>
+        <v>4.1813997456666669</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="4"/>
+        <v>1.1026209333333332</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="4"/>
+        <v>39.666203167666666</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="4"/>
+        <v>6.291772431600001</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="4"/>
+        <v>8.3318400000000005E-5</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="4"/>
+        <v>193776</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="4"/>
+        <v>3344</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="4"/>
+        <v>6618180</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="4"/>
+        <v>181993.54311168133</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="4"/>
+        <v>3040.3671230175</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="4"/>
+        <v>1094357.1868623067</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="4"/>
+        <v>6.0514872450000006</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="4"/>
+        <v>2.1725177333333332</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>